--- a/JavaApplication1/MedicamentDetails.xlsx
+++ b/JavaApplication1/MedicamentDetails.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>nom_medicament</t>
   </si>
@@ -29,49 +26,34 @@
     <t>dispo</t>
   </si>
   <si>
-    <t>Doliprane 2</t>
+    <t>Med</t>
   </si>
   <si>
-    <t>Le paracétamol, aussi appelé acétaminophène, est un composé chimique utilisé comme antalgique et antipyrétique</t>
+    <t>qssdsqds</t>
   </si>
   <si>
-    <t>2021-04-07</t>
+    <t>2021-04-22</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Augmentin</t>
+    <t>sqsqds</t>
   </si>
   <si>
-    <t>Acide clavulanique est une spécialité pharmaceutique de type antibiotique associant acide clavulanique et amoxicilline</t>
+    <t>sqsqddsq</t>
   </si>
   <si>
-    <t>2021-03-10</t>
+    <t>sqdsdq</t>
   </si>
   <si>
-    <t>0</t>
+    <t>sqsqd</t>
   </si>
   <si>
-    <t>Maxilase</t>
+    <t>sqqsd</t>
   </si>
   <si>
-    <t>MAXILASE. MAXILASE MAUX DE GORGE Adulte</t>
-  </si>
-  <si>
-    <t>Efferalgan</t>
-  </si>
-  <si>
-    <t>2021-03-21</t>
-  </si>
-  <si>
-    <t>Panadol</t>
-  </si>
-  <si>
-    <t>2021-03-22</t>
-  </si>
-  <si>
-    <t>test pagi</t>
+    <t>2021-04-21</t>
   </si>
 </sst>
 </file>
@@ -116,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,13 +117,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>76.0</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -152,93 +131,61 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>77.0</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>78.0</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>79.0</v>
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>80.0</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication1/MedicamentDetails.xlsx
+++ b/JavaApplication1/MedicamentDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>nom_medicament</t>
   </si>
@@ -26,34 +26,40 @@
     <t>dispo</t>
   </si>
   <si>
-    <t>Med</t>
-  </si>
-  <si>
-    <t>qssdsqds</t>
-  </si>
-  <si>
-    <t>2021-04-22</t>
+    <t>Maxilase</t>
+  </si>
+  <si>
+    <t>description maxilase</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>sqsqds</t>
-  </si>
-  <si>
-    <t>sqsqddsq</t>
-  </si>
-  <si>
-    <t>sqdsdq</t>
-  </si>
-  <si>
-    <t>sqsqd</t>
-  </si>
-  <si>
-    <t>sqqsd</t>
+    <t>Doliprane</t>
   </si>
   <si>
     <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>Panadole</t>
+  </si>
+  <si>
+    <t>description panadole</t>
+  </si>
+  <si>
+    <t>Efferalgan</t>
+  </si>
+  <si>
+    <t>description efferalgan</t>
+  </si>
+  <si>
+    <t>Medicament</t>
+  </si>
+  <si>
+    <t>descriptionaaa</t>
   </si>
 </sst>
 </file>
@@ -137,10 +143,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -154,7 +160,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -165,10 +171,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -176,10 +182,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
